--- a/biology/Botanique/Franklin_Sumner_Earle/Franklin_Sumner_Earle.xlsx
+++ b/biology/Botanique/Franklin_Sumner_Earle/Franklin_Sumner_Earle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Franklin Sumner Earle est un botaniste et un agronome américain, né le 4 septembre 1856 à Dwight dans l'Illinois et mort le 31 janvier 1929.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Parker Earle et de Melanie née Tracy. Il étudie à l’université de l’Illinois où il travaille sur les champignons. Il fait paraître alors, avec Thomas Jonathan Burrill (1839-1916), The Erysiphaceae of Illinois. Il se marie en 1886 avec Susan B. Skeham dont il aura deux filles.
 Il travaille à partir de 1894 avec la Station expérimentale agricole du Mississippi. Il fait paraître, avec Samuel Mills Tracy (1847-1920), Mississippi Fungi (1895). De 1895 à 1896, il est assistant chargé de l’herbier mycologique au ministère de l’Agriculture américain. En 1896, il devient responsable de l’horticulture à la Station expérimentale agricole dépendant de l’École d’agriculture de l’Alabama. Parallèlement, il enseigne à la biologie à l’Institut polytechnique de cet État. Toujours en 1896, il se remarie avec Esther J. Skehan. Avec Lucien Marcus Underwood (1853-1907), il fait paraître la Preliminary List of Alabama Fungi (1897).
